--- a/SEA_ethnicity_new.xlsx
+++ b/SEA_ethnicity_new.xlsx
@@ -429,22 +429,22 @@
         <v>380</v>
       </c>
       <c r="E2">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="F2">
-        <v>0.9985835300652687</v>
+        <v>0.9988057214275795</v>
       </c>
       <c r="G2">
-        <v>9.903956498105541E-08</v>
+        <v>8.708929450703617E-08</v>
       </c>
       <c r="H2">
-        <v>0.00226967455586896</v>
+        <v>0.002307207839493812</v>
       </c>
       <c r="I2">
-        <v>1.196321012009095E-06</v>
+        <v>1.235450149715735E-06</v>
       </c>
       <c r="J2">
-        <v>41.76335231217887</v>
+        <v>42.63866129704208</v>
       </c>
     </row>
     <row r="3">
@@ -505,22 +505,22 @@
         <v>246</v>
       </c>
       <c r="E4">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F4">
-        <v>0.9962833914053426</v>
+        <v>0.9963165754106521</v>
       </c>
       <c r="G4">
-        <v>6.740190429192973E-07</v>
+        <v>6.752551975154506E-07</v>
       </c>
       <c r="H4">
-        <v>0.00231091687567173</v>
+        <v>0.002308444255922215</v>
       </c>
       <c r="I4">
-        <v>1.242943604527535E-06</v>
+        <v>1.24033484693063E-06</v>
       </c>
       <c r="J4">
-        <v>46.94999170399867</v>
+        <v>46.83869255019081</v>
       </c>
     </row>
     <row r="5">
@@ -552,13 +552,13 @@
         <v>1.677676199257119E-07</v>
       </c>
       <c r="H5">
-        <v>0.002432502431230984</v>
+        <v>0.002429475174721549</v>
       </c>
       <c r="I5">
-        <v>1.376544424948E-06</v>
+        <v>1.373181194290798E-06</v>
       </c>
       <c r="J5">
-        <v>44.43189792663477</v>
+        <v>44.38304853041695</v>
       </c>
     </row>
     <row r="6">
@@ -581,22 +581,22 @@
         <v>203</v>
       </c>
       <c r="E6">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="F6">
-        <v>0.9947812515241672</v>
+        <v>0.9969760522850315</v>
       </c>
       <c r="G6">
-        <v>1.630237551380332E-06</v>
+        <v>8.002888117594041E-07</v>
       </c>
       <c r="H6">
-        <v>0.001848682170984078</v>
+        <v>0.001965030592911723</v>
       </c>
       <c r="I6">
-        <v>8.042747775191128E-07</v>
+        <v>9.062055287696781E-07</v>
       </c>
       <c r="J6">
-        <v>38.39657611081305</v>
+        <v>39.97483295127542</v>
       </c>
     </row>
     <row r="7">
@@ -619,22 +619,22 @@
         <v>160</v>
       </c>
       <c r="E7">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F7">
-        <v>0.995125786163522</v>
+        <v>0.9908805031446541</v>
       </c>
       <c r="G7">
-        <v>2.432580144150451E-06</v>
+        <v>6.474037410328222E-06</v>
       </c>
       <c r="H7">
-        <v>0.002388763827863799</v>
+        <v>0.002308837132172839</v>
       </c>
       <c r="I7">
-        <v>1.332373130063907E-06</v>
+        <v>1.246263626181179E-06</v>
       </c>
       <c r="J7">
-        <v>44.60235849056604</v>
+        <v>43.09457547169811</v>
       </c>
     </row>
     <row r="8">
@@ -657,22 +657,22 @@
         <v>143</v>
       </c>
       <c r="E8">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F8">
-        <v>0.9983256180439278</v>
+        <v>0.9978331527627301</v>
       </c>
       <c r="G8">
-        <v>6.704775603203004E-07</v>
+        <v>7.950059321988883E-07</v>
       </c>
       <c r="H8">
-        <v>0.002243399360596559</v>
+        <v>0.002269704399791335</v>
       </c>
       <c r="I8">
-        <v>1.179689450425335E-06</v>
+        <v>1.206978462776075E-06</v>
       </c>
       <c r="J8">
-        <v>43.38727469713385</v>
+        <v>44.67034374076628</v>
       </c>
     </row>
     <row r="9">
@@ -733,22 +733,22 @@
         <v>125</v>
       </c>
       <c r="E10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F10">
-        <v>0.9815483870967742</v>
+        <v>0.9819354838709677</v>
       </c>
       <c r="G10">
-        <v>2.835228420954838E-05</v>
+        <v>2.838070833548387E-05</v>
       </c>
       <c r="H10">
-        <v>0.00210045024851379</v>
+        <v>0.002123278432901277</v>
       </c>
       <c r="I10">
-        <v>1.038981310306204E-06</v>
+        <v>1.061220259148254E-06</v>
       </c>
       <c r="J10">
-        <v>39.75677419354839</v>
+        <v>40.16722580645161</v>
       </c>
     </row>
     <row r="11">
@@ -809,22 +809,22 @@
         <v>113</v>
       </c>
       <c r="E12">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F12">
-        <v>0.9990518331226295</v>
+        <v>0.9988938053097345</v>
       </c>
       <c r="G12">
-        <v>1.176248010586233E-06</v>
+        <v>1.226155755915553E-06</v>
       </c>
       <c r="H12">
-        <v>0.002220141652262034</v>
+        <v>0.002189965803566402</v>
       </c>
       <c r="I12">
-        <v>1.160218708563941E-06</v>
+        <v>1.129498111523846E-06</v>
       </c>
       <c r="J12">
-        <v>47.22882427307206</v>
+        <v>46.54092920353983</v>
       </c>
     </row>
     <row r="13">
@@ -847,22 +847,22 @@
         <v>89</v>
       </c>
       <c r="E13">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F13">
-        <v>0.9951481103166496</v>
+        <v>0.9897854954034728</v>
       </c>
       <c r="G13">
-        <v>5.697675567656564E-06</v>
+        <v>1.465732311482123E-05</v>
       </c>
       <c r="H13">
-        <v>0.002233324107236321</v>
+        <v>0.002181176681052079</v>
       </c>
       <c r="I13">
-        <v>1.179545139528502E-06</v>
+        <v>1.126142818981743E-06</v>
       </c>
       <c r="J13">
-        <v>41.158835546476</v>
+        <v>43.8876404494382</v>
       </c>
     </row>
     <row r="14">
@@ -885,22 +885,22 @@
         <v>84</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F14">
-        <v>0.9483648881239242</v>
+        <v>0.9859437751004015</v>
       </c>
       <c r="G14">
-        <v>0.0002079582452563339</v>
+        <v>2.446632868648921E-05</v>
       </c>
       <c r="H14">
-        <v>0.002043619000054325</v>
+        <v>0.002124170481811572</v>
       </c>
       <c r="I14">
-        <v>9.925781864352349E-07</v>
+        <v>1.070657680628031E-06</v>
       </c>
       <c r="J14">
-        <v>41.58605851979346</v>
+        <v>43.36374067699369</v>
       </c>
     </row>
     <row r="15">
@@ -923,22 +923,22 @@
         <v>84</v>
       </c>
       <c r="E15">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.9997131382673552</v>
       </c>
       <c r="G15">
-        <v>1.68718280963179E-06</v>
+        <v>1.883716582944567E-06</v>
       </c>
       <c r="H15">
-        <v>0.002351183579220538</v>
+        <v>0.002354438426863556</v>
       </c>
       <c r="I15">
-        <v>1.306600504348738E-06</v>
+        <v>1.310154021473771E-06</v>
       </c>
       <c r="J15">
-        <v>50.84480780263913</v>
+        <v>50.7231784279977</v>
       </c>
     </row>
     <row r="16">
@@ -982,12 +982,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Thai</t>
+          <t>H’tin</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Tai-Kadai</t>
+          <t>Austroasiatic</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -996,188 +996,188 @@
         </is>
       </c>
       <c r="D17">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E17">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="F17">
-        <v>0.9943389943389944</v>
+        <v>0.9650450450450452</v>
       </c>
       <c r="G17">
-        <v>1.221351430844562E-05</v>
+        <v>8.761975415415413E-05</v>
       </c>
       <c r="H17">
-        <v>0.002185458024404517</v>
+        <v>0.00218291909316388</v>
       </c>
       <c r="I17">
-        <v>1.134191739167351E-06</v>
+        <v>1.13281421617945E-06</v>
       </c>
       <c r="J17">
-        <v>129.5887445887446</v>
+        <v>42.35171171171172</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>H’tin</t>
+          <t>Lao</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Austroasiatic</t>
+          <t>Tai-Kadai</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="D18">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E18">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="F18">
-        <v>0.9459459459459459</v>
+        <v>0.9908902691511389</v>
       </c>
       <c r="G18">
-        <v>8.630454454454453E-05</v>
+        <v>3.141744769906949E-05</v>
       </c>
       <c r="H18">
-        <v>0.002055086268284238</v>
+        <v>0.002271075363119766</v>
       </c>
       <c r="I18">
-        <v>1.006487233922683E-06</v>
+        <v>1.226705762574093E-06</v>
       </c>
       <c r="J18">
-        <v>43.50594594594595</v>
+        <v>45.72380952380952</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Lao</t>
+          <t>Lawa</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Tai-Kadai</t>
+          <t>Austroasiatic</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="D19">
         <v>70</v>
       </c>
       <c r="E19">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="F19">
-        <v>0.9908902691511389</v>
+        <v>0.9734989648033125</v>
       </c>
       <c r="G19">
-        <v>3.141744769906949E-05</v>
+        <v>5.333295391930381E-05</v>
       </c>
       <c r="H19">
-        <v>0.002271075363119766</v>
+        <v>0.002300339777712638</v>
       </c>
       <c r="I19">
-        <v>1.226705762574093E-06</v>
+        <v>1.257915214861589E-06</v>
       </c>
       <c r="J19">
-        <v>45.72380952380952</v>
+        <v>45.09026915113871</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Lawa</t>
+          <t>Bamar (or Burman)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Austroasiatic</t>
+          <t>Sino-Tibetan</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Myanmar</t>
         </is>
       </c>
       <c r="D20">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E20">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="F20">
-        <v>0.9734989648033125</v>
+        <v>0.9995610184372256</v>
       </c>
       <c r="G20">
-        <v>5.333295391930381E-05</v>
+        <v>3.635592824940672E-06</v>
       </c>
       <c r="H20">
-        <v>0.002300339777712638</v>
+        <v>0.002020052705378082</v>
       </c>
       <c r="I20">
-        <v>1.257915214861589E-06</v>
+        <v>9.759505017531759E-07</v>
       </c>
       <c r="J20">
-        <v>45.09026915113871</v>
+        <v>38.11194029850746</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Bamar (or Burman)</t>
+          <t>IuMien</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sino-Tibetan</t>
+          <t>Hmong-Mien</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Myanmar</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="D21">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E21">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F21">
-        <v>0.9995610184372256</v>
+        <v>0.9971751412429378</v>
       </c>
       <c r="G21">
-        <v>3.635592824940672E-06</v>
+        <v>9.809845155890355E-06</v>
       </c>
       <c r="H21">
-        <v>0.002020052705378082</v>
+        <v>0.002189688266357587</v>
       </c>
       <c r="I21">
-        <v>9.759505017531759E-07</v>
+        <v>1.147660063905848E-06</v>
       </c>
       <c r="J21">
-        <v>38.11194029850746</v>
+        <v>43.17627118644068</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>IuMien</t>
+          <t>Thai</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Hmong-Mien</t>
+          <t>Tai-Kadai</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1186,25 +1186,25 @@
         </is>
       </c>
       <c r="D22">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E22">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F22">
-        <v>0.9971751412429378</v>
+        <v>0.9963702359346641</v>
       </c>
       <c r="G22">
-        <v>9.809845155890355E-06</v>
+        <v>9.527231930508167E-06</v>
       </c>
       <c r="H22">
-        <v>0.002196246980685611</v>
+        <v>0.002300049964837392</v>
       </c>
       <c r="I22">
-        <v>1.154409853393078E-06</v>
+        <v>1.265394485335873E-06</v>
       </c>
       <c r="J22">
-        <v>43.21638418079096</v>
+        <v>44.62189957652753</v>
       </c>
     </row>
     <row r="23">
@@ -1274,13 +1274,13 @@
         <v>1.549735275823043E-05</v>
       </c>
       <c r="H24">
-        <v>0.002407076046388671</v>
+        <v>0.002408567609668067</v>
       </c>
       <c r="I24">
-        <v>1.388324551142833E-06</v>
+        <v>1.390014751819546E-06</v>
       </c>
       <c r="J24">
-        <v>46.57402031930334</v>
+        <v>46.49709724238026</v>
       </c>
     </row>
     <row r="25">
@@ -1303,22 +1303,22 @@
         <v>50</v>
       </c>
       <c r="E25">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F25">
-        <v>0.9722448979591837</v>
+        <v>0.9730612244897959</v>
       </c>
       <c r="G25">
-        <v>0.0001178887836734694</v>
+        <v>0.0001197432163265307</v>
       </c>
       <c r="H25">
-        <v>0.00201661516827946</v>
+        <v>0.002012717326277746</v>
       </c>
       <c r="I25">
-        <v>9.835644973278787E-07</v>
+        <v>9.798467180004661E-07</v>
       </c>
       <c r="J25">
-        <v>43.64489795918367</v>
+        <v>43.82530612244898</v>
       </c>
     </row>
     <row r="26">
@@ -1417,22 +1417,22 @@
         <v>45</v>
       </c>
       <c r="E28">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F28">
-        <v>0.9636363636363636</v>
+        <v>0.993939393939394</v>
       </c>
       <c r="G28">
-        <v>0.0001726433054828116</v>
+        <v>3.4105665710604E-05</v>
       </c>
       <c r="H28">
-        <v>0.002032423448031433</v>
+        <v>0.002344069857681473</v>
       </c>
       <c r="I28">
-        <v>1.003427045064895E-06</v>
+        <v>1.327252837423117E-06</v>
       </c>
       <c r="J28">
-        <v>45.85656565656566</v>
+        <v>50.13131313131313</v>
       </c>
     </row>
     <row r="29">
@@ -1455,22 +1455,22 @@
         <v>44</v>
       </c>
       <c r="E29">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.9989429175475687</v>
       </c>
       <c r="G29">
-        <v>1.173929376408715E-05</v>
+        <v>1.429732265223511E-05</v>
       </c>
       <c r="H29">
-        <v>0.00228380670317043</v>
+        <v>0.002354410916778781</v>
       </c>
       <c r="I29">
-        <v>1.262464994769E-06</v>
+        <v>1.340211304705103E-06</v>
       </c>
       <c r="J29">
-        <v>45.52431289640592</v>
+        <v>46.16807610993658</v>
       </c>
     </row>
     <row r="30">
@@ -1540,13 +1540,13 @@
         <v>5.910262688434386E-05</v>
       </c>
       <c r="H31">
-        <v>0.0009882794721764177</v>
+        <v>0.0009459932168332041</v>
       </c>
       <c r="I31">
-        <v>2.486765934414635E-07</v>
+        <v>2.286977162201196E-07</v>
       </c>
       <c r="J31">
-        <v>94.61207897793264</v>
+        <v>91.21138211382114</v>
       </c>
     </row>
     <row r="32">
@@ -1578,13 +1578,13 @@
         <v>2.382220352624889E-05</v>
       </c>
       <c r="H32">
-        <v>0.001518138042683667</v>
+        <v>0.001632447112423664</v>
       </c>
       <c r="I32">
-        <v>5.70495189802018E-07</v>
+        <v>6.570676247570785E-07</v>
       </c>
       <c r="J32">
-        <v>49.03292682926829</v>
+        <v>53.57195121951219</v>
       </c>
     </row>
     <row r="33">
@@ -1628,50 +1628,50 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Mang</t>
+          <t>Kankanaey (or Igorot)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Austroasiatic</t>
+          <t>Austronesian</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="D34">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E34">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F34">
-        <v>0.8903903903903905</v>
+        <v>0.9857752489331436</v>
       </c>
       <c r="G34">
-        <v>0.0009873799577565696</v>
+        <v>6.861408621798657E-05</v>
       </c>
       <c r="H34">
-        <v>0.001738523396228948</v>
+        <v>0.002026796846099655</v>
       </c>
       <c r="I34">
-        <v>7.47077341367298E-07</v>
+        <v>1.006758307807891E-06</v>
       </c>
       <c r="J34">
-        <v>31.76876876876877</v>
+        <v>46.73684210526316</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Nung</t>
+          <t>Mang</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Tai-Kadai</t>
+          <t>Austroasiatic</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1683,104 +1683,104 @@
         <v>37</v>
       </c>
       <c r="E35">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F35">
-        <v>0.9909909909909911</v>
+        <v>0.8903903903903905</v>
       </c>
       <c r="G35">
-        <v>5.602026239527497E-05</v>
+        <v>0.0009873799577565696</v>
       </c>
       <c r="H35">
-        <v>0.002130030683330176</v>
+        <v>0.001738523396228948</v>
       </c>
       <c r="I35">
-        <v>1.111344480097193E-06</v>
+        <v>7.47077341367298E-07</v>
       </c>
       <c r="J35">
-        <v>43.07507507507508</v>
+        <v>31.76876876876877</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Bru (Brao)</t>
+          <t>Nung</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Austroasiatic</t>
+          <t>Tai-Kadai</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="D36">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E36">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F36">
-        <v>0.9698412698412698</v>
+        <v>0.9909909909909911</v>
       </c>
       <c r="G36">
-        <v>0.0001948801449401586</v>
+        <v>5.602026239527497E-05</v>
       </c>
       <c r="H36">
-        <v>0.002161197248216827</v>
+        <v>0.002130030683330176</v>
       </c>
       <c r="I36">
-        <v>1.145288700317267E-06</v>
+        <v>1.111344480097193E-06</v>
       </c>
       <c r="J36">
-        <v>44.4984126984127</v>
+        <v>43.07507507507508</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Besemah</t>
+          <t>Bru (Brao)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Austronesian</t>
+          <t>Austroasiatic</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="D37">
         <v>36</v>
       </c>
       <c r="E37">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F37">
-        <v>0.9904761904761906</v>
+        <v>0.9714285714285714</v>
       </c>
       <c r="G37">
-        <v>6.164674374550913E-05</v>
+        <v>0.0001988209549937946</v>
       </c>
       <c r="H37">
-        <v>0.00193062918409489</v>
+        <v>0.002115922250150438</v>
       </c>
       <c r="I37">
-        <v>9.182947526961202E-07</v>
+        <v>1.098740304340456E-06</v>
       </c>
       <c r="J37">
-        <v>40.86984126984127</v>
+        <v>44.21269841269842</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Semende</t>
+          <t>Besemah</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1797,71 +1797,71 @@
         <v>36</v>
       </c>
       <c r="E38">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F38">
-        <v>0.9793650793650794</v>
+        <v>0.9968253968253967</v>
       </c>
       <c r="G38">
-        <v>0.0001247960985186636</v>
+        <v>3.220690806424685E-05</v>
       </c>
       <c r="H38">
-        <v>0.002134696853948191</v>
+        <v>0.002271643735353169</v>
       </c>
       <c r="I38">
-        <v>1.117925815528878E-06</v>
+        <v>1.262891063381425E-06</v>
       </c>
       <c r="J38">
-        <v>48.91269841269841</v>
+        <v>47.68888888888889</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LaChi</t>
+          <t>Semende</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Tai-Kadai</t>
+          <t>Austronesian</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="D39">
         <v>36</v>
       </c>
       <c r="E39">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="F39">
-        <v>0.9460317460317459</v>
+        <v>0.9873015873015873</v>
       </c>
       <c r="G39">
-        <v>0.0002004086194758348</v>
+        <v>0.0001088911025467952</v>
       </c>
       <c r="H39">
-        <v>0.001931274483848813</v>
+        <v>0.002074591334097672</v>
       </c>
       <c r="I39">
-        <v>9.188951159659176E-07</v>
+        <v>1.057089713789488E-06</v>
       </c>
       <c r="J39">
-        <v>43.65396825396825</v>
+        <v>47.01269841269841</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LoLo</t>
+          <t>LaChi</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Sino-Tibetan</t>
+          <t>Tai-Kadai</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1873,33 +1873,33 @@
         <v>36</v>
       </c>
       <c r="E40">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F40">
-        <v>0.888888888888889</v>
+        <v>0.9460317460317459</v>
       </c>
       <c r="G40">
-        <v>0.0008732154651221864</v>
+        <v>0.0002004086194758348</v>
       </c>
       <c r="H40">
-        <v>0.001766492943141278</v>
+        <v>0.001931274483848813</v>
       </c>
       <c r="I40">
-        <v>7.719565224865049E-07</v>
+        <v>9.188951159659176E-07</v>
       </c>
       <c r="J40">
-        <v>40.39206349206349</v>
+        <v>43.65396825396825</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PaThen</t>
+          <t>LoLo</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Hmong-Mien</t>
+          <t>Sino-Tibetan</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1911,33 +1911,33 @@
         <v>36</v>
       </c>
       <c r="E41">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F41">
-        <v>0.9142857142857143</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="G41">
-        <v>0.000892857142857143</v>
+        <v>0.0008732154651221864</v>
       </c>
       <c r="H41">
-        <v>0.002026540380718376</v>
+        <v>0.001766492943141278</v>
       </c>
       <c r="I41">
-        <v>1.00967833900869E-06</v>
+        <v>7.719565224865049E-07</v>
       </c>
       <c r="J41">
-        <v>38.26031746031746</v>
+        <v>40.39206349206349</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PhuLa</t>
+          <t>PaThen</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Sino-Tibetan</t>
+          <t>Hmong-Mien</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1946,36 +1946,36 @@
         </is>
       </c>
       <c r="D42">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E42">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F42">
-        <v>0.9798319327731093</v>
+        <v>0.9142857142857143</v>
       </c>
       <c r="G42">
-        <v>0.0001226032570462588</v>
+        <v>0.000892857142857143</v>
       </c>
       <c r="H42">
-        <v>0.002206688854128194</v>
+        <v>0.002026540380718376</v>
       </c>
       <c r="I42">
-        <v>1.195076167861143E-06</v>
+        <v>1.00967833900869E-06</v>
       </c>
       <c r="J42">
-        <v>43.23529411764706</v>
+        <v>38.26031746031746</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CoLao</t>
+          <t>PhuLa</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Tai-Kadai</t>
+          <t>Sino-Tibetan</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1984,69 +1984,69 @@
         </is>
       </c>
       <c r="D43">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E43">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F43">
-        <v>0.9821746880570409</v>
+        <v>0.9798319327731093</v>
       </c>
       <c r="G43">
-        <v>0.0001361772859712441</v>
+        <v>0.0001226032570462588</v>
       </c>
       <c r="H43">
-        <v>0.002218033525381132</v>
+        <v>0.002206688854128194</v>
       </c>
       <c r="I43">
-        <v>1.209349514761094E-06</v>
+        <v>1.195076167861143E-06</v>
       </c>
       <c r="J43">
-        <v>46.78431372549019</v>
+        <v>43.23529411764706</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Lisu</t>
+          <t>CoLao</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Sino-Tibetan</t>
+          <t>Tai-Kadai</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Myanmar</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="D44">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E44">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F44">
-        <v>0.9810606060606061</v>
+        <v>0.9821746880570409</v>
       </c>
       <c r="G44">
-        <v>9.065642959047324E-05</v>
+        <v>0.0001361772859712441</v>
       </c>
       <c r="H44">
-        <v>0.002165384221348964</v>
+        <v>0.002218033525381132</v>
       </c>
       <c r="I44">
-        <v>1.155934777263872E-06</v>
+        <v>1.209349514761094E-06</v>
       </c>
       <c r="J44">
-        <v>38.85606060606061</v>
+        <v>46.78431372549019</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>HaNhi</t>
+          <t>Lisu</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2056,35 +2056,35 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Myanmar</t>
         </is>
       </c>
       <c r="D45">
         <v>33</v>
       </c>
       <c r="E45">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F45">
-        <v>0.990530303030303</v>
+        <v>0.9829545454545454</v>
       </c>
       <c r="G45">
-        <v>5.942351211344674E-05</v>
+        <v>9.010545773745007E-05</v>
       </c>
       <c r="H45">
-        <v>0.002288744012626416</v>
+        <v>0.002108468454622301</v>
       </c>
       <c r="I45">
-        <v>1.288628850425625E-06</v>
+        <v>1.09714145833587E-06</v>
       </c>
       <c r="J45">
-        <v>46.61742424242424</v>
+        <v>38.01136363636363</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SiLa</t>
+          <t>HaNhi</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2098,69 +2098,69 @@
         </is>
       </c>
       <c r="D46">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E46">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F46">
-        <v>0.8903225806451613</v>
+        <v>0.9337121212121212</v>
       </c>
       <c r="G46">
-        <v>0.001585195453403422</v>
+        <v>0.0006461079233317011</v>
       </c>
       <c r="H46">
-        <v>0.001821855113261605</v>
+        <v>0.001963059599011261</v>
       </c>
       <c r="I46">
-        <v>8.278914595452634E-07</v>
+        <v>9.539007301890287E-07</v>
       </c>
       <c r="J46">
-        <v>36.61935483870968</v>
+        <v>40.77462121212121</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Abaknon</t>
+          <t>SiLa</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Austronesian</t>
+          <t>Sino-Tibetan</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="D47">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E47">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F47">
-        <v>0.9862068965517242</v>
+        <v>0.8903225806451613</v>
       </c>
       <c r="G47">
-        <v>0.0001163218390804598</v>
+        <v>0.001585195453403422</v>
       </c>
       <c r="H47">
-        <v>0.002175035313752179</v>
+        <v>0.001821855113261605</v>
       </c>
       <c r="I47">
-        <v>1.173772354419112E-06</v>
+        <v>8.278914595452634E-07</v>
       </c>
       <c r="J47">
-        <v>46.81149425287357</v>
+        <v>36.61935483870968</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Bugkalot (or Ilongot)</t>
+          <t>Abaknon</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2177,28 +2177,28 @@
         <v>30</v>
       </c>
       <c r="E48">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F48">
-        <v>0.9770114942528735</v>
+        <v>0.9862068965517242</v>
       </c>
       <c r="G48">
-        <v>0.0001524904214559388</v>
+        <v>0.0001163218390804598</v>
       </c>
       <c r="H48">
-        <v>0.002002682200906442</v>
+        <v>0.002173506730283532</v>
       </c>
       <c r="I48">
-        <v>9.985022948653021E-07</v>
+        <v>1.17215567233494E-06</v>
       </c>
       <c r="J48">
-        <v>39.70114942528735</v>
+        <v>46.63218390804597</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Surigaonon</t>
+          <t>Bugkalot (or Ilongot)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2215,28 +2215,28 @@
         <v>30</v>
       </c>
       <c r="E49">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F49">
-        <v>0.9908045977011494</v>
+        <v>0.9862068965517242</v>
       </c>
       <c r="G49">
-        <v>0.0001050830140485313</v>
+        <v>8.669220945083011E-05</v>
       </c>
       <c r="H49">
-        <v>0.0016473453414138</v>
+        <v>0.002074986217046923</v>
       </c>
       <c r="I49">
-        <v>6.818373689637103E-07</v>
+        <v>1.070306048863692E-06</v>
       </c>
       <c r="J49">
-        <v>59.95402298850575</v>
+        <v>41.12873563218391</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Kankanaey</t>
+          <t>Surigaonon</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2253,22 +2253,22 @@
         <v>30</v>
       </c>
       <c r="E50">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F50">
-        <v>0.9862068965517242</v>
+        <v>0.9931034482758619</v>
       </c>
       <c r="G50">
-        <v>0.0001163218390804598</v>
+        <v>9.747126436781609E-05</v>
       </c>
       <c r="H50">
-        <v>0.002164965294794393</v>
+        <v>0.001590938043928865</v>
       </c>
       <c r="I50">
-        <v>1.163142456413079E-06</v>
+        <v>6.371039127353639E-07</v>
       </c>
       <c r="J50">
-        <v>48.45747126436782</v>
+        <v>59.28275862068966</v>
       </c>
     </row>
     <row r="51">
@@ -2367,22 +2367,22 @@
         <v>27</v>
       </c>
       <c r="E53">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F53">
-        <v>0.9800569800569801</v>
+        <v>0.9857549857549858</v>
       </c>
       <c r="G53">
-        <v>0.0001715059604834763</v>
+        <v>0.0001611808642128094</v>
       </c>
       <c r="H53">
-        <v>0.002195615476629663</v>
+        <v>0.002563414399163192</v>
       </c>
       <c r="I53">
-        <v>1.205404215067818E-06</v>
+        <v>1.633855475161267E-06</v>
       </c>
       <c r="J53">
-        <v>39.01994301994302</v>
+        <v>46.61538461538461</v>
       </c>
     </row>
     <row r="54">
@@ -2709,22 +2709,22 @@
         <v>25</v>
       </c>
       <c r="E62">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F62">
         <v>0.9866666666666667</v>
       </c>
       <c r="G62">
-        <v>0.0001390592000000001</v>
+        <v>0.0002004992</v>
       </c>
       <c r="H62">
-        <v>0.002202769057393544</v>
+        <v>0.001985267479772974</v>
       </c>
       <c r="I62">
-        <v>1.221094467066603E-06</v>
+        <v>9.960921686502287E-07</v>
       </c>
       <c r="J62">
-        <v>40.65</v>
+        <v>37.31</v>
       </c>
     </row>
     <row r="63">
@@ -2747,22 +2747,22 @@
         <v>25</v>
       </c>
       <c r="E63">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F63">
-        <v>0.9566666666666667</v>
+        <v>0.9866666666666667</v>
       </c>
       <c r="G63">
-        <v>0.0002985727999999997</v>
+        <v>0.0001390592000000001</v>
       </c>
       <c r="H63">
-        <v>0.002158722487363821</v>
+        <v>0.002311642801039212</v>
       </c>
       <c r="I63">
-        <v>1.173681142958595E-06</v>
+        <v>1.342316703196968E-06</v>
       </c>
       <c r="J63">
-        <v>40.54</v>
+        <v>45.03333333333333</v>
       </c>
     </row>
     <row r="64">
@@ -2794,13 +2794,13 @@
         <v>0.0004374528000000003</v>
       </c>
       <c r="H64">
-        <v>0.002212286002014099</v>
+        <v>0.002239410236268052</v>
       </c>
       <c r="I64">
-        <v>1.231462137766864E-06</v>
+        <v>1.261251393390957E-06</v>
       </c>
       <c r="J64">
-        <v>45.77333333333333</v>
+        <v>46.21666666666667</v>
       </c>
     </row>
     <row r="65">
@@ -2899,22 +2899,22 @@
         <v>23</v>
       </c>
       <c r="E67">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F67">
-        <v>0.9051383399209487</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="G67">
-        <v>0.002571350052209914</v>
+        <v>0.002646067805895366</v>
       </c>
       <c r="H67">
-        <v>0.001819118128983501</v>
+        <v>0.001859962299158945</v>
       </c>
       <c r="I67">
-        <v>8.46158347546588E-07</v>
+        <v>8.83673638133169E-07</v>
       </c>
       <c r="J67">
-        <v>36.45454545454545</v>
+        <v>37.41106719367589</v>
       </c>
     </row>
     <row r="68">
@@ -2937,22 +2937,22 @@
         <v>23</v>
       </c>
       <c r="E68">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F68">
-        <v>0.8656126482213439</v>
+        <v>0.8814229249011859</v>
       </c>
       <c r="G68">
-        <v>0.001381487480192909</v>
+        <v>0.0013688885697416</v>
       </c>
       <c r="H68">
-        <v>0.002378604774581382</v>
+        <v>0.002304869358896719</v>
       </c>
       <c r="I68">
-        <v>1.430773150175785E-06</v>
+        <v>1.344995948957081E-06</v>
       </c>
       <c r="J68">
-        <v>42.11857707509881</v>
+        <v>42.21343873517787</v>
       </c>
     </row>
     <row r="69">
@@ -2984,13 +2984,13 @@
         <v>8.218952905399852E-05</v>
       </c>
       <c r="H69">
-        <v>0.002294547430710706</v>
+        <v>0.002276446409275311</v>
       </c>
       <c r="I69">
-        <v>1.333199817618493E-06</v>
+        <v>1.312638965154262E-06</v>
       </c>
       <c r="J69">
-        <v>41.77865612648221</v>
+        <v>44.88142292490119</v>
       </c>
     </row>
     <row r="70">
@@ -3013,22 +3013,22 @@
         <v>23</v>
       </c>
       <c r="E70">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F70">
-        <v>0.9960474308300395</v>
+        <v>0.9762845849802372</v>
       </c>
       <c r="G70">
-        <v>0.0001150851147502973</v>
+        <v>0.0002899020594317442</v>
       </c>
       <c r="H70">
-        <v>0.002145359949160458</v>
+        <v>0.002200802729911591</v>
       </c>
       <c r="I70">
-        <v>1.168505289063704E-06</v>
+        <v>1.228444138569377E-06</v>
       </c>
       <c r="J70">
-        <v>39.10671936758893</v>
+        <v>39.13833992094862</v>
       </c>
     </row>
     <row r="71">
@@ -3051,22 +3051,22 @@
         <v>22</v>
       </c>
       <c r="E71">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F71">
-        <v>0.9220779220779223</v>
+        <v>1</v>
       </c>
       <c r="G71">
-        <v>0.001988611415904633</v>
+        <v>9.391435011269723E-05</v>
       </c>
       <c r="H71">
-        <v>0.002657426716850595</v>
+        <v>0.002453093735640706</v>
       </c>
       <c r="I71">
-        <v>1.786998779989405E-06</v>
+        <v>1.526873971326188E-06</v>
       </c>
       <c r="J71">
-        <v>48.2034632034632</v>
+        <v>45.16017316017316</v>
       </c>
     </row>
     <row r="72">
@@ -3148,93 +3148,93 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Kinh, Cham, Ede, Giarai</t>
+          <t>Ancient Thai</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Austroasiatic, Austronesian</t>
+          <t>Tai-Kadai</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="D74">
         <v>20</v>
       </c>
       <c r="E74">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>0.9421052631578947</v>
       </c>
       <c r="G74">
-        <v>0.0001249999999999999</v>
+        <v>0.001692302631578947</v>
       </c>
       <c r="H74">
-        <v>0.001402681981371773</v>
+        <v>0.001629063219098868</v>
       </c>
       <c r="I74">
-        <v>5.176148057530301E-07</v>
+        <v>6.923803809074048E-07</v>
       </c>
       <c r="J74">
-        <v>28.16842105263158</v>
+        <v>363.8368421052631</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Chin</t>
+          <t>Kinh, Cham, Ede, Giarai</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Sino-Tibetan</t>
+          <t>Austroasiatic, Austronesian</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Myanmar</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="D75">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E75">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F75">
-        <v>0.9934640522875817</v>
+        <v>0.994736842105263</v>
       </c>
       <c r="G75">
-        <v>0.0002570148620338241</v>
+        <v>0.0001817763157894737</v>
       </c>
       <c r="H75">
-        <v>0.00166052454107687</v>
+        <v>0.002183254716230959</v>
       </c>
       <c r="I75">
-        <v>7.27843107728352E-07</v>
+        <v>1.22722271112633E-06</v>
       </c>
       <c r="J75">
-        <v>30.16993464052288</v>
+        <v>45.15263157894737</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Maranao</t>
+          <t>Chin</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Austronesian</t>
+          <t>Sino-Tibetan</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Myanmar</t>
         </is>
       </c>
       <c r="D76">
@@ -3250,143 +3250,143 @@
         <v>0.0002570148620338241</v>
       </c>
       <c r="H76">
-        <v>0.002378325800979799</v>
+        <v>0.00166052454107687</v>
       </c>
       <c r="I76">
-        <v>1.470191759247565E-06</v>
+        <v>7.27843107728352E-07</v>
       </c>
       <c r="J76">
-        <v>50.01307189542484</v>
+        <v>30.16993464052288</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Mlabri</t>
+          <t>Maranao</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Austroasiatic</t>
+          <t>Austronesian</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="D77">
         <v>18</v>
       </c>
       <c r="E77">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F77">
-        <v>0.6013071895424836</v>
+        <v>0.9934640522875817</v>
       </c>
       <c r="G77">
-        <v>0.01212303241674662</v>
+        <v>0.0002570148620338241</v>
       </c>
       <c r="H77">
-        <v>3.116488829557253E-05</v>
+        <v>0.002378325800979799</v>
       </c>
       <c r="I77">
-        <v>9.378710049754665E-10</v>
+        <v>1.470191759247565E-06</v>
       </c>
       <c r="J77">
-        <v>0.8823529411764706</v>
+        <v>50.01307189542484</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Tetum, Mambai, Makasae</t>
+          <t>Mlabri</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Austronesian, Trans–New Guinea</t>
+          <t>Austroasiatic</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="D78">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E78">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F78">
-        <v>0.9852941176470589</v>
+        <v>0.6013071895424836</v>
       </c>
       <c r="G78">
-        <v>0.0003942298414558647</v>
+        <v>0.01212303241674662</v>
       </c>
       <c r="H78">
-        <v>0.001777419492307911</v>
+        <v>3.116488829557253E-05</v>
       </c>
       <c r="I78">
-        <v>8.374197258767932E-07</v>
+        <v>9.378710049754665E-10</v>
       </c>
       <c r="J78">
-        <v>32.08823529411764</v>
+        <v>0.8823529411764706</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Malay</t>
+          <t>Tetum, Mambai, Makasae</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Austronesian</t>
+          <t>Austronesian, Trans–New Guinea</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
       <c r="D79">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E79">
         <v>15</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0.9852941176470589</v>
       </c>
       <c r="G79">
-        <v>0.0002962962962962963</v>
+        <v>0.0003942298414558647</v>
       </c>
       <c r="H79">
-        <v>0.002125157086205458</v>
+        <v>0.001777419492307911</v>
       </c>
       <c r="I79">
-        <v>1.209761157657917E-06</v>
+        <v>8.374197258767932E-07</v>
       </c>
       <c r="J79">
-        <v>39.39047619047619</v>
+        <v>32.08823529411764</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Arakanese (or Rakhine)</t>
+          <t>Malay</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Sino-Tibetan</t>
+          <t>Austronesian</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Myanmar</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="D80">
@@ -3402,105 +3402,105 @@
         <v>0.0002962962962962963</v>
       </c>
       <c r="H80">
-        <v>0.001718841680185</v>
+        <v>0.002122856510198741</v>
       </c>
       <c r="I80">
-        <v>7.988766748565114E-07</v>
+        <v>1.207195705579237E-06</v>
       </c>
       <c r="J80">
-        <v>32</v>
+        <v>39.43809523809524</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Tompoun</t>
+          <t>Arakanese (or Rakhine)</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Austroasiatic</t>
+          <t>Sino-Tibetan</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Myanmar</t>
         </is>
       </c>
       <c r="D81">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E81">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F81">
-        <v>0.9615384615384616</v>
+        <v>1</v>
       </c>
       <c r="G81">
-        <v>0.001932436108410338</v>
+        <v>0.0002962962962962963</v>
       </c>
       <c r="H81">
-        <v>0.002020868369461195</v>
+        <v>0.001718841680185</v>
       </c>
       <c r="I81">
-        <v>1.123255436202159E-06</v>
+        <v>7.988766748565114E-07</v>
       </c>
       <c r="J81">
-        <v>37.2051282051282</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Naga</t>
+          <t>Tompoun</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Sino-Tibetan</t>
+          <t>Austroasiatic</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Myanmar</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="D82">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E82">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="G82">
-        <v>0.0005787037037037031</v>
+        <v>0.001932436108410338</v>
       </c>
       <c r="H82">
-        <v>0.001966541356822069</v>
+        <v>0.002020868369461195</v>
       </c>
       <c r="I82">
-        <v>1.08152425785829E-06</v>
+        <v>1.123255436202159E-06</v>
       </c>
       <c r="J82">
-        <v>34.93939393939394</v>
+        <v>37.2051282051282</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Tay Nung</t>
+          <t>Naga</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Tai-Kadai</t>
+          <t>Sino-Tibetan</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Myanmar</t>
         </is>
       </c>
       <c r="D83">
@@ -3516,176 +3516,176 @@
         <v>0.0005787037037037031</v>
       </c>
       <c r="H83">
-        <v>0.002389935725282792</v>
+        <v>0.001966541356822069</v>
       </c>
       <c r="I83">
-        <v>1.585233532143761E-06</v>
+        <v>1.08152425785829E-06</v>
       </c>
       <c r="J83">
-        <v>49.28787878787879</v>
+        <v>34.93939393939394</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Minangkabau</t>
+          <t>Tay Nung</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Austronesian</t>
+          <t>Tai-Kadai</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="D84">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E84">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F84">
-        <v>0.9818181818181818</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="G84">
-        <v>0.001318836890177646</v>
+        <v>0.002459490740740741</v>
       </c>
       <c r="H84">
-        <v>0.002014587635660618</v>
+        <v>0.002067322570071981</v>
       </c>
       <c r="I84">
-        <v>1.155085436976751E-06</v>
+        <v>1.192719884621816E-06</v>
       </c>
       <c r="J84">
-        <v>40.05454545454545</v>
+        <v>45.92424242424242</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Non-Malaysian (Chinese, Bajau, Kadazan-Dusun)</t>
+          <t>Minangkabau</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Austronesian, Sino-Tibetan</t>
+          <t>Austronesian</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="D85">
         <v>11</v>
       </c>
       <c r="E85">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>0.9818181818181818</v>
       </c>
       <c r="G85">
-        <v>0.0007513148009015778</v>
+        <v>0.001318836890177646</v>
       </c>
       <c r="H85">
-        <v>0.002038507583995079</v>
+        <v>0.0019090195130792</v>
       </c>
       <c r="I85">
-        <v>1.182098649488664E-06</v>
+        <v>1.039593655908818E-06</v>
       </c>
       <c r="J85">
-        <v>40.29090909090909</v>
+        <v>38.05454545454545</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Maniq</t>
+          <t>Non-Malaysian (Chinese, Bajau, Kadazan-Dusun)</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Austroasiatic</t>
+          <t>Austronesian, Sino-Tibetan</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="D86">
         <v>11</v>
       </c>
       <c r="E86">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F86">
-        <v>0.8727272727272727</v>
+        <v>1</v>
       </c>
       <c r="G86">
-        <v>0.00372552793835493</v>
+        <v>0.0007513148009015778</v>
       </c>
       <c r="H86">
-        <v>0.001859229747675963</v>
+        <v>0.002137357628477599</v>
       </c>
       <c r="I86">
-        <v>9.872331412518918E-07</v>
+        <v>1.297041488024192E-06</v>
       </c>
       <c r="J86">
-        <v>32.89090909090909</v>
+        <v>41.92727272727273</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Jarai</t>
+          <t>Maniq</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Austronesian</t>
+          <t>Austroasiatic</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="D87">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F87">
-        <v>0.8666666666666667</v>
+        <v>0.8727272727272727</v>
       </c>
       <c r="G87">
-        <v>0.01054666666666667</v>
+        <v>0.00372552793835493</v>
       </c>
       <c r="H87">
-        <v>0.001788087471306029</v>
+        <v>0.001859229747675963</v>
       </c>
       <c r="I87">
-        <v>9.356513226178364E-07</v>
+        <v>9.872331412518918E-07</v>
       </c>
       <c r="J87">
-        <v>34.91111111111111</v>
+        <v>32.89090909090909</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Kreung</t>
+          <t>Jarai</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Austroasiatic</t>
+          <t>Austronesian</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3697,114 +3697,114 @@
         <v>10</v>
       </c>
       <c r="E88">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F88">
-        <v>0.9777777777777779</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="G88">
-        <v>0.001813333333333333</v>
+        <v>0.01054666666666667</v>
       </c>
       <c r="H88">
-        <v>0.001710846768512368</v>
+        <v>0.001788087471306029</v>
       </c>
       <c r="I88">
-        <v>8.58362985936752E-07</v>
+        <v>9.356513226178364E-07</v>
       </c>
       <c r="J88">
-        <v>34.53333333333333</v>
+        <v>34.91111111111111</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Javanese</t>
+          <t>Kreung</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Austronesian</t>
+          <t>Austroasiatic</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="D89">
         <v>10</v>
       </c>
       <c r="E89">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0.9777777777777779</v>
       </c>
       <c r="G89">
-        <v>0.0009999999999999994</v>
+        <v>0.001813333333333333</v>
       </c>
       <c r="H89">
-        <v>0.002149756992760199</v>
+        <v>0.001710846768512368</v>
       </c>
       <c r="I89">
-        <v>1.341834429062246E-06</v>
+        <v>8.58362985936752E-07</v>
       </c>
       <c r="J89">
-        <v>50.08888888888889</v>
+        <v>34.53333333333333</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Stieng</t>
+          <t>Javanese</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Austroasiatic</t>
+          <t>Austronesian</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="D90">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F90">
         <v>1</v>
       </c>
       <c r="G90">
-        <v>0.001371742112482852</v>
+        <v>0.0009999999999999994</v>
       </c>
       <c r="H90">
-        <v>0.002006172839506173</v>
+        <v>0.002158722487363821</v>
       </c>
       <c r="I90">
-        <v>1.205249730628655E-06</v>
+        <v>1.35283051684016E-06</v>
       </c>
       <c r="J90">
-        <v>36.66666666666666</v>
+        <v>42.93333333333333</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Minahasa</t>
+          <t>Stieng</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Austronesian</t>
+          <t>Austroasiatic</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="D91">
@@ -3820,19 +3820,19 @@
         <v>0.001371742112482852</v>
       </c>
       <c r="H91">
-        <v>0.002117520722171885</v>
+        <v>0.001885513752172367</v>
       </c>
       <c r="I91">
-        <v>1.339822277283881E-06</v>
+        <v>1.067459114272431E-06</v>
       </c>
       <c r="J91">
-        <v>42.55555555555556</v>
+        <v>34.88888888888889</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Bruneian Malay</t>
+          <t>Minahasa</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3842,35 +3842,35 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Brunei</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="D92">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E92">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F92">
         <v>1</v>
       </c>
       <c r="G92">
-        <v>0.001953125</v>
+        <v>0.001371742112482852</v>
       </c>
       <c r="H92">
-        <v>0.002179015861509519</v>
+        <v>0.001905989100963733</v>
       </c>
       <c r="I92">
-        <v>1.468991143093428E-06</v>
+        <v>1.090252814574613E-06</v>
       </c>
       <c r="J92">
-        <v>41.28571428571428</v>
+        <v>38.77777777777778</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Dayak</t>
+          <t>Bruneian Malay</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Brunei</t>
         </is>
       </c>
       <c r="D93">
@@ -3896,19 +3896,19 @@
         <v>0.001953125</v>
       </c>
       <c r="H93">
-        <v>0.002429132329464556</v>
+        <v>0.002179015861509519</v>
       </c>
       <c r="I93">
-        <v>1.818431246153066E-06</v>
+        <v>1.468991143093428E-06</v>
       </c>
       <c r="J93">
-        <v>45.67857142857143</v>
+        <v>41.28571428571428</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Igorot</t>
+          <t>Dayak</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3918,29 +3918,29 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="D94">
         <v>8</v>
       </c>
       <c r="E94">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F94">
-        <v>0.75</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="G94">
-        <v>0.0172119140625</v>
+        <v>0.003819056919642857</v>
       </c>
       <c r="H94">
-        <v>0.0001380845940744448</v>
+        <v>0.002601058585439262</v>
       </c>
       <c r="I94">
-        <v>9.214863808085525E-09</v>
+        <v>2.080226363429824E-06</v>
       </c>
       <c r="J94">
-        <v>10.67857142857143</v>
+        <v>59.32142857142857</v>
       </c>
     </row>
     <row r="95">
@@ -4001,71 +4001,71 @@
         <v>7</v>
       </c>
       <c r="E96">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>0.9523809523809524</v>
       </c>
       <c r="G96">
-        <v>0.00291545189504373</v>
+        <v>0.005949901826619862</v>
       </c>
       <c r="H96">
-        <v>0.0003046607344048193</v>
+        <v>0.001488723922183998</v>
       </c>
       <c r="I96">
-        <v>3.707480690798588E-08</v>
+        <v>7.314402819951355E-07</v>
       </c>
       <c r="J96">
-        <v>6.476190476190476</v>
+        <v>26.19047619047619</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Batak</t>
+          <t>Khmer Loeu</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Austronesian</t>
+          <t>Austroasiatic, Austronesian</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="D97">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E97">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F97">
         <v>1</v>
       </c>
       <c r="G97">
-        <v>0.00291545189504373</v>
+        <v>0.004629629629629625</v>
       </c>
       <c r="H97">
-        <v>0.002346445824706694</v>
+        <v>0.002166908329305623</v>
       </c>
       <c r="I97">
-        <v>1.781127789399627E-06</v>
+        <v>1.625654653690106E-06</v>
       </c>
       <c r="J97">
-        <v>44.80952380952381</v>
+        <v>44.06666666666667</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Khmer Loeu</t>
+          <t>Phnong</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Austroasiatic, Austronesian</t>
+          <t>Austroasiatic</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4086,29 +4086,29 @@
         <v>0.004629629629629625</v>
       </c>
       <c r="H98">
-        <v>0.002166908329305623</v>
+        <v>0.001948940968027704</v>
       </c>
       <c r="I98">
-        <v>1.625654653690106E-06</v>
+        <v>1.320529673146962E-06</v>
       </c>
       <c r="J98">
-        <v>44.06666666666667</v>
+        <v>37.66666666666666</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Phnong</t>
+          <t>Ambonese</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Austroasiatic</t>
+          <t>Austronesian</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="D99">
@@ -4124,19 +4124,19 @@
         <v>0.004629629629629625</v>
       </c>
       <c r="H99">
-        <v>0.001948940968027704</v>
+        <v>0.001373200442967885</v>
       </c>
       <c r="I99">
-        <v>1.320529673146962E-06</v>
+        <v>6.668936630493677E-07</v>
       </c>
       <c r="J99">
-        <v>37.66666666666666</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Ambonese</t>
+          <t>Indonesian</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -4162,19 +4162,19 @@
         <v>0.004629629629629625</v>
       </c>
       <c r="H100">
-        <v>0.00131287503523821</v>
+        <v>0.002585321655089097</v>
       </c>
       <c r="I100">
-        <v>6.111967712519389E-07</v>
+        <v>2.300133736529725E-06</v>
       </c>
       <c r="J100">
-        <v>27.8</v>
+        <v>48.86666666666667</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Indonesian</t>
+          <t>Batak</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -4184,7 +4184,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="D101">
@@ -4200,13 +4200,13 @@
         <v>0.004629629629629625</v>
       </c>
       <c r="H101">
-        <v>0.002506991811029959</v>
+        <v>0.002187179022415564</v>
       </c>
       <c r="I101">
-        <v>2.164987064624273E-06</v>
+        <v>1.655640646995213E-06</v>
       </c>
       <c r="J101">
-        <v>43.4</v>
+        <v>49.66666666666666</v>
       </c>
     </row>
     <row r="102">
@@ -4276,13 +4276,13 @@
         <v>0.007999999999999997</v>
       </c>
       <c r="H103">
-        <v>0.002293854883496318</v>
+        <v>0.001813455842350239</v>
       </c>
       <c r="I103">
-        <v>1.997924198720242E-06</v>
+        <v>1.260067971317054E-06</v>
       </c>
       <c r="J103">
-        <v>40.4</v>
+        <v>43</v>
       </c>
     </row>
     <row r="104">
@@ -4305,22 +4305,22 @@
         <v>5</v>
       </c>
       <c r="E104">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F104">
-        <v>0.9999999999999999</v>
+        <v>0.3999999999999998</v>
       </c>
       <c r="G104">
-        <v>0.007999999999999997</v>
+        <v>0.05695999999999994</v>
       </c>
       <c r="H104">
-        <v>0.001715493808517064</v>
+        <v>0.001256493898755588</v>
       </c>
       <c r="I104">
-        <v>1.1303801610717E-06</v>
+        <v>6.164661911624635E-07</v>
       </c>
       <c r="J104">
-        <v>37.8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105">
@@ -4343,22 +4343,22 @@
         <v>5</v>
       </c>
       <c r="E105">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F105">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="G105">
-        <v>0.007999999999999997</v>
+        <v>0.02015999999999995</v>
       </c>
       <c r="H105">
-        <v>0.002246919545784006</v>
+        <v>0.0005794302269435056</v>
       </c>
       <c r="I105">
-        <v>1.918375358312039E-06</v>
+        <v>1.404350107199218E-07</v>
       </c>
       <c r="J105">
-        <v>43.2</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="106">
@@ -4466,13 +4466,13 @@
         <v>0.037037037037037</v>
       </c>
       <c r="H108">
-        <v>0.0002414146900838916</v>
+        <v>0.002174306939662982</v>
       </c>
       <c r="I108">
-        <v>4.200587506461502E-08</v>
+        <v>2.713160783178853E-06</v>
       </c>
       <c r="J108">
-        <v>4.666666666666667</v>
+        <v>46</v>
       </c>
     </row>
     <row r="109">
@@ -4504,13 +4504,13 @@
         <v>0.037037037037037</v>
       </c>
       <c r="H109">
-        <v>0.002696285564811461</v>
+        <v>0.002052148720424916</v>
       </c>
       <c r="I109">
-        <v>4.146391051433038E-06</v>
+        <v>2.421457890510576E-06</v>
       </c>
       <c r="J109">
-        <v>48</v>
+        <v>35.33333333333334</v>
       </c>
     </row>
     <row r="110">
@@ -4542,13 +4542,13 @@
         <v>0.037037037037037</v>
       </c>
       <c r="H110">
-        <v>0.0002818546032896458</v>
+        <v>0.002092386930629326</v>
       </c>
       <c r="I110">
-        <v>5.537469271962713E-08</v>
+        <v>2.515711848737633E-06</v>
       </c>
       <c r="J110">
-        <v>4.666666666666667</v>
+        <v>36</v>
       </c>
     </row>
     <row r="111">
@@ -4580,13 +4580,13 @@
         <v>0.037037037037037</v>
       </c>
       <c r="H111">
-        <v>0.001731706334823406</v>
+        <v>0.002132625140833736</v>
       </c>
       <c r="I111">
-        <v>1.735063487601668E-06</v>
+        <v>2.611764822031861E-06</v>
       </c>
       <c r="J111">
-        <v>41</v>
+        <v>36.66666666666666</v>
       </c>
     </row>
     <row r="112">
@@ -4618,13 +4618,13 @@
         <v>0.037037037037037</v>
       </c>
       <c r="H112">
-        <v>0.002577112023838286</v>
+        <v>0.002939518402190545</v>
       </c>
       <c r="I112">
-        <v>3.792499871724131E-06</v>
+        <v>4.917653620761834E-06</v>
       </c>
       <c r="J112">
-        <v>53.33333333333334</v>
+        <v>59.33333333333334</v>
       </c>
     </row>
     <row r="113">
@@ -4656,13 +4656,13 @@
         <v>0.125</v>
       </c>
       <c r="H113">
-        <v>0.002414001207000604</v>
+        <v>0.002536691429606813</v>
       </c>
       <c r="I113">
-        <v>5.971805799823688E-06</v>
+        <v>6.586546630288895E-06</v>
       </c>
       <c r="J113">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="114">
@@ -4694,13 +4694,13 @@
         <v>0.125</v>
       </c>
       <c r="H114">
-        <v>0.002536691429606813</v>
+        <v>0.001026012432856539</v>
       </c>
       <c r="I114">
-        <v>6.586546630288895E-06</v>
+        <v>1.114076904662881E-06</v>
       </c>
       <c r="J114">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115">
@@ -4732,13 +4732,13 @@
         <v>0.125</v>
       </c>
       <c r="H115">
-        <v>0.0002414292612264606</v>
+        <v>0.001328021248339973</v>
       </c>
       <c r="I115">
-        <v>7.273022858590537E-08</v>
+        <v>1.843081798029658E-06</v>
       </c>
       <c r="J115">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116">
@@ -4808,13 +4808,13 @@
         <v>0.125</v>
       </c>
       <c r="H117">
-        <v>0.001810719459198455</v>
+        <v>0.002293993359492907</v>
       </c>
       <c r="I117">
-        <v>3.387021012991576E-06</v>
+        <v>5.399630714918932E-06</v>
       </c>
       <c r="J117">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="118">
@@ -4846,13 +4846,13 @@
         <v>0.125</v>
       </c>
       <c r="H118">
-        <v>0.002595207918401835</v>
+        <v>0.002354077382748838</v>
       </c>
       <c r="I118">
-        <v>6.890347779048968E-06</v>
+        <v>5.682499692441764E-06</v>
       </c>
       <c r="J118">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="119">
